--- a/biology/Botanique/Sycamore_Gap_Tree/Sycamore_Gap_Tree.xlsx
+++ b/biology/Botanique/Sycamore_Gap_Tree/Sycamore_Gap_Tree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Sycamore Gap Tree était un érable sycomore (Acer pseudoplatanus) situé à côté du mur d'Hadrien, près de Crag Lough (en), dans le comté de Northumberland, dans le nord de l'Angleterre.
-Sa position dans un paysage remarquable, au sein du parc national du Northumberland, en a fait un sujet photographique populaire, décrit comme l'un des arbres les plus photographiés du pays[1].
+Sa position dans un paysage remarquable, au sein du parc national du Northumberland, en a fait un sujet photographique populaire, décrit comme l'un des arbres les plus photographiés du pays.
 Son nom alternatif, Robin Hood Tree, vient d'une scène du film Robin des Bois, prince des voleurs (1991).
 L'arbre remporte le prix de l'arbre britannique de l'année (en) en 2016.
-Le Sycamore Gap tree est abattu à la tronçonneuse à la base du tronc le 28 septembre 2023, à la suite d'un acte de malveillance[2],[3].
+Le Sycamore Gap tree est abattu à la tronçonneuse à la base du tronc le 28 septembre 2023, à la suite d'un acte de malveillance,.
 </t>
         </is>
       </c>
